--- a/biology/Zoologie/Balto_3___Sur_l'aile_du_vent/Balto_3___Sur_l'aile_du_vent.xlsx
+++ b/biology/Zoologie/Balto_3___Sur_l'aile_du_vent/Balto_3___Sur_l'aile_du_vent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Balto_3_:_Sur_l%27aile_du_vent</t>
+          <t>Balto_3_:_Sur_l'aile_du_vent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balto 3 : Sur l'Aile du vent est un film d'animation américain réalisé par Phil Weinstein et sorti en 2004.
 Il clôt la série de film Balto, commencée neuf ans auparavant avec Balto : L'Histoire d'une légende et qui fut continuée par Balto 2 : La Quête du loup, en 2002.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Balto_3_:_Sur_l%27aile_du_vent</t>
+          <t>Balto_3_:_Sur_l'aile_du_vent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire se déroule au printemps 1928, soit trois ans après les événements du premier film et quelques mois après ceux du deuxième.
 Kodi est le fils de Balto, il travaille dans l'attelage de la poste, un travail qu'il vient tout juste d'avoir et qu'il aime. Quant à Balto, il est intrigué par l'arrivée d'un avion à Nome. Balto avoue qu'il a toujours rêvé de voler. Néanmoins, l'arrivée de l'avion n'enchante pas les chiens de la poste et leurs soupçons sont confirmés lorsque le pilote, Duke, propose de distribuer le courrier, le traîneau étant quelquefois en retard à cause du climat. Pendant ce temps là, Boris tombe amoureux d'une oie prénommé Stella. Celle-ci lui propose de voler avec lui. Boris accepte mais il a le vertige et ne sait voler qu'à basse altitude. Malgré les efforts de Balto, Boris n'y arrive pas et commence à mentir à Stella sur une soi-disant blessure à une aile.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Balto_3_:_Sur_l%27aile_du_vent</t>
+          <t>Balto_3_:_Sur_l'aile_du_vent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Balto III: Wings of Change
 Réalisation : Phil Weinstein
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Balto_3_:_Sur_l%27aile_du_vent</t>
+          <t>Balto_3_:_Sur_l'aile_du_vent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,8 +614,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales
-Maurice LaMarche : Balto / Le premier élan / Le second élan
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Maurice LaMarche : Balto / Le premier élan / Le second élan
 Jodi Benson : Jenna
 Sean Astin : Kodi
 Keith Carradine : Duke
@@ -610,9 +631,43 @@
 Charity James : Dusty
 Carl Weathers : Kirby
 David Paymer : Mel
-Kathy Najimy : Dipsy
-Voix françaises
-Philippe Vincent : Balto
+Kathy Najimy : Dipsy</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Balto_3_:_Sur_l'aile_du_vent</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balto_3_:_Sur_l%27aile_du_vent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Philippe Vincent : Balto
 Rafaèle Moutier : Jenna
 Guillaume Lebon : Kodi / Muk
 Stéphane Ronchewski : Duke
